--- a/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>345536</v>
+        <v>345539</v>
       </c>
       <c r="D10" t="n">
-        <v>64164</v>
+        <v>64165</v>
       </c>
       <c r="E10" t="n">
-        <v>1817715752</v>
+        <v>1817720252</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>175237</v>
+        <v>175240</v>
       </c>
       <c r="D21" t="n">
-        <v>38056</v>
+        <v>38057</v>
       </c>
       <c r="E21" t="n">
-        <v>316808682</v>
+        <v>316813398</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>178440</v>
+        <v>178441</v>
       </c>
       <c r="D78" t="n">
         <v>34685</v>
       </c>
       <c r="E78" t="n">
-        <v>892473543</v>
+        <v>892526355</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306151</v>
+        <v>1306164</v>
       </c>
       <c r="D121" t="n">
         <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2274626494</v>
+        <v>2274669692</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633413</v>
+        <v>633440</v>
       </c>
       <c r="D129" t="n">
         <v>104966</v>
       </c>
       <c r="E129" t="n">
-        <v>3427944517</v>
+        <v>3428621480</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585701</v>
+        <v>585716</v>
       </c>
       <c r="D132" t="n">
         <v>90780</v>
       </c>
       <c r="E132" t="n">
-        <v>3463116150</v>
+        <v>3463679198</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25076</v>
+        <v>25079</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92439338</v>
+        <v>92448942</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18454</v>
+        <v>18455</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>72765909</v>
+        <v>72768683</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12401</v>
+        <v>12402</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>40224583</v>
+        <v>40299139</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8364,13 +8364,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>18378</v>
+        <v>18380</v>
       </c>
       <c r="D194" t="n">
         <v>2990</v>
       </c>
       <c r="E194" t="n">
-        <v>71345179</v>
+        <v>71349778</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -9799,13 +9799,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>612545</v>
+        <v>612546</v>
       </c>
       <c r="D229" t="n">
         <v>121244</v>
       </c>
       <c r="E229" t="n">
-        <v>1040753491</v>
+        <v>1040763491</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
